--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,37 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>insane</t>
@@ -73,10 +82,10 @@
     <t>boring</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>stupid</t>
   </si>
   <si>
     <t>addicted</t>
@@ -85,84 +94,72 @@
     <t>wrong</t>
   </si>
   <si>
-    <t>dumb</t>
+    <t>hate</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>sick</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>shocked</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -178,34 +175,37 @@
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>high</t>
+    <t>essential</t>
   </si>
   <si>
     <t>okay</t>
@@ -214,61 +214,67 @@
     <t>first</t>
   </si>
   <si>
-    <t>top</t>
+    <t>thank</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>whole</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>opening</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>opening</t>
+    <t>much</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>much</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>documentary</t>
   </si>
   <si>
     <t>media</t>
@@ -278,9 +284,6 @@
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>documentary</t>
   </si>
   <si>
     <t>dilemma</t>
@@ -650,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -772,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -793,13 +796,13 @@
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,13 +946,13 @@
         <v>52</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K8">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K9">
-        <v>0.7543859649122807</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>55</v>
@@ -1119,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1143,13 +1146,13 @@
         <v>56</v>
       </c>
       <c r="K11">
-        <v>0.6923076923076923</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7894736842105263</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>57</v>
@@ -1219,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,13 +1246,13 @@
         <v>58</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1269,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K14">
-        <v>0.6666666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7272727272727273</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K15">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1372,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.725</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K16">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1422,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K17">
-        <v>0.5789473684210527</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1519,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6923076923076923</v>
+        <v>0.725</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>64</v>
@@ -1569,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K20">
-        <v>0.4848484848484849</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,31 +1622,31 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>6</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K21">
-        <v>0.4615384615384616</v>
+        <v>0.375</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -1661,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.65</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K22">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1711,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6382978723404256</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1737,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K23">
-        <v>0.3055555555555556</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1761,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1769,13 +1772,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1787,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K24">
-        <v>0.288135593220339</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1819,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.625</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1837,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K25">
-        <v>0.2668488160291439</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L25">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1861,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>805</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1869,13 +1872,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6086956521739131</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C26">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1887,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K26">
-        <v>0.2608695652173913</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1911,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1919,13 +1922,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5882352941176471</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1937,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K27">
-        <v>0.2307692307692308</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1961,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1969,13 +1972,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1987,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K28">
-        <v>0.1971830985915493</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2011,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2019,13 +2022,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5384615384615384</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2037,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K29">
-        <v>0.1951219512195122</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2061,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2069,13 +2072,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5217391304347826</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2087,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K30">
-        <v>0.1851851851851852</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -2111,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2119,13 +2122,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2137,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K31">
-        <v>0.1789473684210526</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2161,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2169,7 +2172,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -2187,19 +2190,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K32">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2211,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2219,37 +2222,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4642857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>13</v>
-      </c>
-      <c r="D33">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K33">
-        <v>0.1506849315068493</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2261,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2269,13 +2272,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4615384615384616</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2287,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K34">
-        <v>0.1475409836065574</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2311,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2319,13 +2322,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2369,13 +2372,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4102564102564102</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2387,19 +2390,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K36">
-        <v>0.1411764705882353</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2411,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2419,13 +2422,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3684210526315789</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2437,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>82</v>
@@ -2469,13 +2472,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3333333333333333</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2487,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K38">
-        <v>0.072992700729927</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -2511,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2519,13 +2522,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3214285714285715</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2537,19 +2540,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K39">
-        <v>0.05555555555555555</v>
+        <v>0.05</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2561,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2569,13 +2572,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3214285714285715</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2587,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K40">
-        <v>0.03765060240963856</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2611,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>639</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2619,13 +2622,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2051282051282051</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2637,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K41">
-        <v>0.03519061583577713</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2661,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>329</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2669,37 +2672,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.05405405405405406</v>
+        <v>0.05067567567567568</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F42">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K42">
-        <v>0.03409090909090909</v>
+        <v>0.03313253012048193</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2711,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>595</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2719,13 +2722,13 @@
         <v>88</v>
       </c>
       <c r="K43">
-        <v>0.03180212014134275</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2737,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>274</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2745,13 +2748,13 @@
         <v>89</v>
       </c>
       <c r="K44">
-        <v>0.03174603174603174</v>
+        <v>0.0275974025974026</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2763,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>305</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2771,13 +2774,13 @@
         <v>90</v>
       </c>
       <c r="K45">
-        <v>0.01785714285714286</v>
+        <v>0.0253968253968254</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2789,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1705</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2797,13 +2800,13 @@
         <v>91</v>
       </c>
       <c r="K46">
-        <v>0.01664532650448143</v>
+        <v>0.02246543778801843</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2815,7 +2818,33 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>768</v>
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47">
+        <v>0.01920614596670935</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
